--- a/mbs-perturbation/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606060606060606</v>
+        <v>0.72</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4809941520467836</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9956140350877193</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7251461988304093</v>
+        <v>0.9839181286549707</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8567251461988303</v>
+        <v>0.8099415204678363</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7878787878787877</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7762345679012346</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.9125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6625730994152047</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7393006993006993</v>
+        <v>0.5395747955747956</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7839018843404808</v>
+        <v>0.7929824561403509</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4809941520467836</v>
+        <v>0.02249134948096886</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.6072664359861591</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9839181286549707</v>
+        <v>0.2422145328719723</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8099415204678363</v>
+        <v>0.3477508650519031</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.2889273356401384</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9125</v>
+        <v>0.3082222222222222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5052631578947369</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5395747955747956</v>
+        <v>0.2924087406846028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7929824561403509</v>
+        <v>0.3017301038062284</v>
       </c>
     </row>
   </sheetData>
